--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2476610.320326958</v>
+        <v>2474358.240615752</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755695</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>220.3091963090871</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,13 +713,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>32.83323659136505</v>
       </c>
       <c r="G4" t="n">
-        <v>11.16818915334128</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>345.8079317615178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087831</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>34.987230763697</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>45.06776172308889</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613037</v>
+        <v>120.7307820829407</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704672973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389317996</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4424239494343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812005</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>62.18842302760083</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219475</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.169958279064</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D2" t="n">
-        <v>1131.904259672313</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>746.1160070740689</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259409</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283597</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>691.6489789975187</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C4" t="n">
-        <v>522.7127960696118</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="D4" t="n">
-        <v>372.5961566572761</v>
+        <v>99.67700187800671</v>
       </c>
       <c r="E4" t="n">
-        <v>224.683063074883</v>
+        <v>99.67700187800671</v>
       </c>
       <c r="F4" t="n">
-        <v>77.79311557697261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1094.090022971289</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>873.2974438277585</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2325.505862906803</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906803</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1891.953910953445</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1700.268026780272</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1478.501411349798</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162751</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731431</v>
+        <v>528.0429005162108</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5051,16 +5051,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,16 +5075,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W16" t="n">
-        <v>1277.309669727408</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.711814750797</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>984.9192356072666</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5838,19 +5838,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5477693179085</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4311299055728</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194683</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.7555412501377</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>131.6952193743937</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.8635921600923</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>84.24553961896834</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>799166.8139980022</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="13">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
@@ -26347,13 +26347,13 @@
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92183.89891818173</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818169</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818169</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818172</v>
-      </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683046</v>
@@ -26442,16 +26442,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="N4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12996.86414683046</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26522,46 +26522,46 @@
         <v>-892555.2135623477</v>
       </c>
       <c r="C6" t="n">
-        <v>436189.5321652443</v>
+        <v>436189.5321652445</v>
       </c>
       <c r="D6" t="n">
-        <v>436189.5321652445</v>
+        <v>436189.5321652447</v>
       </c>
       <c r="E6" t="n">
-        <v>186006.758981662</v>
+        <v>185972.0210562267</v>
       </c>
       <c r="F6" t="n">
-        <v>511419.2207890174</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="G6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635818</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635814</v>
       </c>
       <c r="I6" t="n">
-        <v>511419.220789017</v>
+        <v>511384.4828635813</v>
       </c>
       <c r="J6" t="n">
-        <v>293888.0183917395</v>
+        <v>293853.2804663041</v>
       </c>
       <c r="K6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="L6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635815</v>
       </c>
       <c r="M6" t="n">
-        <v>426364.1928535054</v>
+        <v>426329.4549280696</v>
       </c>
       <c r="N6" t="n">
-        <v>511419.220789017</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="O6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="P6" t="n">
-        <v>511419.2207890172</v>
+        <v>511384.4828635814</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.959751123126</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>186.5668494326243</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>112.5878114315662</v>
       </c>
       <c r="G4" t="n">
-        <v>154.857619105687</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>19.4649600094898</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071189987</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>53.94492190635033</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.0698816007391</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921498</v>
+        <v>290.1909435705127</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28615,13 +28615,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254229</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.585383513313</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420897</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066204</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912947</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
